--- a/Project_spmedgruop/Modelo_Fisico.xlsx
+++ b/Project_spmedgruop/Modelo_Fisico.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47651807863\Desktop\Nova pasta\Documentos-2DEV\SpMedGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrique\SENAI\2º sem\banco\BancoDados-SQL\Project_spmedgruop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB49D02-BF0D-489E-9285-3AEBB29ED090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2FD443-586C-4574-9A99-C320BBE2E499}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E81C042C-6BA2-44CD-B1C5-9C4D518C2F76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E81C042C-6BA2-44CD-B1C5-9C4D518C2F76}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -376,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +433,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -599,11 +607,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -611,19 +616,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -634,9 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -705,9 +698,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,18 +751,37 @@
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1104,1026 +1113,1026 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="40.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" customWidth="1"/>
-    <col min="14" max="14" width="66.109375" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" customWidth="1"/>
-    <col min="17" max="17" width="15.77734375" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="66.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="I1" s="1" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="I1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="61"/>
+      <c r="L1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="5"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="46">
-        <v>1</v>
-      </c>
-      <c r="E3" s="44">
+      <c r="C3" s="6"/>
+      <c r="D3" s="40">
+        <v>1</v>
+      </c>
+      <c r="E3" s="38">
         <v>8</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="37">
         <v>2</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="27">
-        <v>1</v>
-      </c>
-      <c r="M3" s="27">
-        <v>1</v>
-      </c>
-      <c r="N3" s="28" t="s">
+      <c r="L3" s="22">
+        <v>1</v>
+      </c>
+      <c r="M3" s="22">
+        <v>1</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="50">
+      <c r="O3" s="44">
         <v>30602</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="52">
+      <c r="Q3" s="46">
         <v>94839859000</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="46">
+      <c r="C4" s="6"/>
+      <c r="D4" s="40">
         <v>2</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="38">
         <v>9</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="37">
         <v>17</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="8">
         <v>2</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="22">
         <v>2</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="22">
         <v>2</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="44">
         <v>37095</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="46">
         <v>73556944057</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="46">
+      <c r="C5" s="6"/>
+      <c r="D5" s="40">
         <v>3</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="38">
         <v>10</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="37">
         <v>16</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="8">
         <v>3</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="22">
         <v>3</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="22">
         <v>3</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="44">
         <v>28773</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="46">
         <v>16839338002</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="21"/>
-      <c r="I6" s="12">
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="16"/>
+      <c r="I6" s="8">
         <v>4</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="22">
         <v>4</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="28">
         <v>4</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="50">
+      <c r="O6" s="44">
         <v>31333</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="46">
         <v>14332654765</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="R6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="I7" s="12">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="I7" s="8">
         <v>5</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="22">
         <v>5</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="28">
         <v>5</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="44">
         <v>27633</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="52">
+      <c r="Q7" s="46">
         <v>91305348010</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
         <v>6</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="22">
         <v>6</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="28">
         <v>6</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="44">
         <v>26379</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="46">
         <v>79799299004</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="R8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
-        <v>1</v>
-      </c>
-      <c r="B9" s="24">
-        <v>1</v>
-      </c>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="8">
         <v>7</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="22">
         <v>7</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="28">
         <v>7</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="44">
         <v>43164</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="52">
+      <c r="Q9" s="46">
         <v>13771913039</v>
       </c>
-      <c r="R9" s="29"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+      <c r="R9" s="24"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="24">
-        <v>1</v>
-      </c>
-      <c r="C10" s="24">
-        <v>1</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8">
         <v>8</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
         <v>3</v>
       </c>
-      <c r="B11" s="24">
-        <v>1</v>
-      </c>
-      <c r="C11" s="24">
-        <v>1</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8">
         <v>9</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>4</v>
       </c>
-      <c r="B12" s="24">
-        <v>1</v>
-      </c>
-      <c r="C12" s="24">
-        <v>1</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="8">
         <v>10</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="34">
-        <v>1</v>
-      </c>
-      <c r="C13" s="24">
-        <v>1</v>
-      </c>
-      <c r="D13" s="31" t="s">
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="12">
+      <c r="H13" s="16"/>
+      <c r="I13" s="8">
         <v>11</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="34">
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>6</v>
       </c>
-      <c r="B14" s="34">
-        <v>1</v>
-      </c>
-      <c r="C14" s="24">
-        <v>1</v>
-      </c>
-      <c r="D14" s="31" t="s">
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="12">
+      <c r="H14" s="16"/>
+      <c r="I14" s="8">
         <v>12</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="34">
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="34">
-        <v>1</v>
-      </c>
-      <c r="C15" s="24">
-        <v>1</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="12">
+      <c r="H15" s="11"/>
+      <c r="I15" s="8">
         <v>13</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+      <c r="L15" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
         <v>8</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="29">
         <v>3</v>
       </c>
-      <c r="C16" s="34">
-        <v>1</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="12">
+      <c r="H16" s="6"/>
+      <c r="I16" s="8">
         <v>14</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="47" t="s">
+      <c r="O16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="37" t="s">
+      <c r="P16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="38" t="s">
+      <c r="Q16" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="21"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
+      <c r="R16" s="16"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="29">
         <v>3</v>
       </c>
-      <c r="C17" s="24">
-        <v>1</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="12">
+      <c r="H17" s="16"/>
+      <c r="I17" s="8">
         <v>15</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="40">
-        <v>1</v>
-      </c>
-      <c r="M17" s="40" t="s">
+      <c r="L17" s="35">
+        <v>1</v>
+      </c>
+      <c r="M17" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="35">
         <v>1231322233</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O17" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="P17" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="Q17" s="40" t="s">
+      <c r="Q17" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="R17" s="21"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="R17" s="16"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="29">
         <v>3</v>
       </c>
-      <c r="C18" s="24">
-        <v>1</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="12">
+      <c r="H18" s="16"/>
+      <c r="I18" s="8">
         <v>16</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H19" s="17"/>
-      <c r="I19" s="12">
+      <c r="M18" s="12"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H19" s="12"/>
+      <c r="I19" s="8">
         <v>17</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="17"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="M19" s="12"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="17"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="61" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="61"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="53">
-        <v>1</v>
-      </c>
-      <c r="B23" s="54">
+      <c r="J22" s="60"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="47">
+        <v>1</v>
+      </c>
+      <c r="B23" s="48">
         <v>3</v>
       </c>
-      <c r="C23" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="58">
+      <c r="C23" s="47">
+        <v>1</v>
+      </c>
+      <c r="D23" s="52">
         <v>43850.625</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="53">
         <v>2</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="62" t="s">
+      <c r="F23" s="49"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="62" t="s">
+      <c r="J23" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="53">
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="47">
         <v>2</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="48">
         <v>2</v>
       </c>
-      <c r="C24" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="58">
+      <c r="C24" s="47">
+        <v>2</v>
+      </c>
+      <c r="D24" s="52">
         <v>43836.416666666664</v>
       </c>
-      <c r="E24" s="59">
-        <v>1</v>
-      </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="63">
-        <v>1</v>
-      </c>
-      <c r="J24" s="63" t="s">
+      <c r="E24" s="53">
+        <v>1</v>
+      </c>
+      <c r="F24" s="49"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="56">
+        <v>1</v>
+      </c>
+      <c r="J24" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="53">
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="47">
         <v>3</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="48">
         <v>2</v>
       </c>
-      <c r="C25" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="58">
+      <c r="C25" s="54">
+        <v>3</v>
+      </c>
+      <c r="D25" s="52">
         <v>43868.458333333336</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="53">
         <v>2</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="63">
+      <c r="F25" s="49"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="56">
         <v>2</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="53">
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="47">
         <v>4</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26" s="50">
         <v>2</v>
       </c>
-      <c r="C26" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="58">
+      <c r="C26" s="54">
+        <v>4</v>
+      </c>
+      <c r="D26" s="52">
         <v>43137.416666666664</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="53">
         <v>2</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="63">
+      <c r="F26" s="51"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="56">
         <v>3</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="J26" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="53">
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="47">
         <v>5</v>
       </c>
-      <c r="B27" s="54">
-        <v>1</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="58">
+      <c r="B27" s="48">
+        <v>1</v>
+      </c>
+      <c r="C27" s="54">
+        <v>5</v>
+      </c>
+      <c r="D27" s="52">
         <v>43503.458854166667</v>
       </c>
-      <c r="E27" s="59">
-        <v>1</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="39"/>
-      <c r="M27" s="17"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="53">
+      <c r="E27" s="53">
+        <v>1</v>
+      </c>
+      <c r="F27" s="51"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="34"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="47">
         <v>6</v>
       </c>
-      <c r="B28" s="54">
+      <c r="B28" s="48">
         <v>3</v>
       </c>
-      <c r="C28" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="58">
+      <c r="C28" s="54">
+        <v>6</v>
+      </c>
+      <c r="D28" s="52">
         <v>43898.625</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="53">
         <v>3</v>
       </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="17"/>
-      <c r="M28" s="17"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="53">
+      <c r="F28" s="51"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="47">
         <v>7</v>
       </c>
-      <c r="B29" s="54">
-        <v>1</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="58">
+      <c r="B29" s="48">
+        <v>1</v>
+      </c>
+      <c r="C29" s="54">
+        <v>7</v>
+      </c>
+      <c r="D29" s="52">
         <v>43899.458854166667</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="53">
         <v>3</v>
       </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="17"/>
-      <c r="M29" s="17"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="L1:Q1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" xr:uid="{0462159F-D50C-4C32-BE65-3A7FAB8C343E}"/>
